--- a/data/03_oscar_2019_nomination-best-picture.xlsx
+++ b/data/03_oscar_2019_nomination-best-picture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/Oscar-Machine-Learning-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E15FAD-A4E8-C64E-84F4-DA1EC5B655A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8BCCE5-C535-4F43-A70D-BBCFC6B3FCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47040" yWindow="460" windowWidth="19860" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03_oscar_2019_nomination-best-p" sheetId="1" r:id="rId1"/>
@@ -1952,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6552,7 +6552,7 @@
         <v>124</v>
       </c>
       <c r="W17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X17" t="s">
         <v>124</v>
@@ -6872,7 +6872,7 @@
         <v>124</v>
       </c>
       <c r="AC18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD18" t="s">
         <v>124</v>
